--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3657544.177142662</v>
+        <v>3651192.43460153</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6512074.230746699</v>
+        <v>6511484.25135628</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.48969240374878</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>233.4445582527663</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445104</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>21.24059023833965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>72.30123682227973</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.9180501233466</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>285.2516283459903</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>216.678175539005</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023833965</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>1.894826399411374</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1069,10 +1069,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>215.3966750080341</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.55373540747259</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.3093616921727</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>70.8715247451141</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.50262867523591</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>68.55571665851285</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,10 +1427,10 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>73.22834263216967</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>214.8003373881336</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1667,13 +1667,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.903426900358</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555344</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313971</v>
+        <v>296.6956602587577</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303125</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453491</v>
+        <v>20.92391191189554</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443504</v>
+        <v>48.81858568179567</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896132</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431831</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769525</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274705</v>
+        <v>251.2592108548311</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897094</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046336</v>
+        <v>67.32610467782399</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074577</v>
+        <v>52.4732329281064</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258549</v>
+        <v>38.04694813994612</v>
       </c>
       <c r="E34" t="n">
-        <v>44.4168526654646</v>
+        <v>37.97339019282524</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523187</v>
+        <v>39.7228416125925</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762401</v>
+        <v>50.54167953498464</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419605</v>
+        <v>37.89393170155668</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536798</v>
+        <v>15.73364728272861</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198239</v>
+        <v>6.632145647184529</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535121</v>
+        <v>84.75808915271185</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868839</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734591</v>
+        <v>147.2897179008197</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682824</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449588</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>282.625430549382</v>
       </c>
       <c r="E41" t="n">
         <v>302.090850164389</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.04720258388072</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415637</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443878</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627851</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915762</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892489</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131702</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788906</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906099</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351691</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.0216171555809</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>124.2175601048135</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415637</v>
+        <v>86.88909903415643</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443878</v>
+        <v>72.03622728443884</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627851</v>
+        <v>57.60994249627856</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915762</v>
+        <v>57.53638454915767</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892489</v>
+        <v>59.28583596892494</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131702</v>
+        <v>70.10467389131708</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788906</v>
+        <v>57.45692605788912</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906099</v>
+        <v>35.29664163906105</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351691</v>
+        <v>26.19514000351697</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.501679706995</v>
+        <v>822.055541584404</v>
       </c>
       <c r="C2" t="n">
-        <v>1396.326178209925</v>
+        <v>822.055541584404</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.885049426593</v>
+        <v>436.6144128010717</v>
       </c>
       <c r="E2" t="n">
-        <v>1010.885049426593</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>187.9577942777502</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="L2" t="n">
-        <v>99.81849489543106</v>
+        <v>49.51007577541236</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912863</v>
+        <v>550.6768587708624</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1051.843641766312</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="U2" t="n">
-        <v>1868.784197286539</v>
+        <v>1564.657096592282</v>
       </c>
       <c r="V2" t="n">
-        <v>1868.784197286539</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="W2" t="n">
-        <v>1868.784197286539</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="X2" t="n">
-        <v>1868.784197286539</v>
+        <v>1222.550287295801</v>
       </c>
       <c r="Y2" t="n">
-        <v>1868.784197286539</v>
+        <v>1222.550287295801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163353</v>
+        <v>505.9467430955065</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764275</v>
+        <v>355.2925126555987</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979078</v>
+        <v>225.203545277079</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087955</v>
+        <v>88.75705438796672</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192734</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019192734</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703881</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>845.7959704975785</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M3" t="n">
-        <v>958.727577184797</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580652</v>
+        <v>1959.252106069789</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848782</v>
+        <v>1689.084762927953</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527424</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898491</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031778</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817893</v>
+        <v>837.0572944609605</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572966</v>
+        <v>657.7430775364678</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.8488215600594</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6437036260486</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="D4" t="n">
-        <v>656.6437036260486</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="E4" t="n">
-        <v>656.6437036260486</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="F4" t="n">
-        <v>499.3177688390215</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>615.228275255301</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>379.5092234235351</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>379.5092234235351</v>
       </c>
       <c r="V4" t="n">
-        <v>826.8488215600594</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="W4" t="n">
-        <v>826.8488215600594</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8488215600594</v>
+        <v>113.5298782443593</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.8488215600594</v>
+        <v>113.5298782443593</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>755.183607246948</v>
+        <v>1059.958186059028</v>
       </c>
       <c r="C5" t="n">
-        <v>755.183607246948</v>
+        <v>666.7826845619584</v>
       </c>
       <c r="D5" t="n">
-        <v>467.0506493217052</v>
+        <v>281.3415557786261</v>
       </c>
       <c r="E5" t="n">
-        <v>64.46712443824975</v>
+        <v>62.47471179983318</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863158</v>
+        <v>49.620677370215</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K5" t="n">
-        <v>187.1405114458669</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>680.4608031643958</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563756</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959612</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.53692685194</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="U5" t="n">
-        <v>1868.784197286539</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="V5" t="n">
-        <v>1526.677387990057</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="W5" t="n">
-        <v>1155.678352958345</v>
+        <v>1449.410791125971</v>
       </c>
       <c r="X5" t="n">
-        <v>1155.678352958345</v>
+        <v>1059.958186059028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1155.678352958345</v>
+        <v>1059.958186059028</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163353</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764275</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979078</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087955</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192734</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703881</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703881</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703881</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>150.7494967528512</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>676.5723861487064</v>
+        <v>616.9613602238136</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544562</v>
+        <v>1118.128143219264</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135543</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750005</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649874</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848782</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527424</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898491</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031778</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817893</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572966</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
       <c r="C7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
       <c r="D7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>499.1727399491259</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>341.8468051620988</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703881</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="T7" t="n">
-        <v>523.5492782631263</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="U7" t="n">
-        <v>523.5492782631263</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="V7" t="n">
-        <v>523.5492782631263</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="W7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
       <c r="X7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
       <c r="Y7" t="n">
-        <v>523.5492782631263</v>
+        <v>654.7315520899233</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,13 +4805,13 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2294.061106344742</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2038.308376779341</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>1696.201567482859</v>
       </c>
       <c r="W8" t="n">
-        <v>1135.296415028523</v>
+        <v>1325.202532451146</v>
       </c>
       <c r="X8" t="n">
-        <v>745.8438099615802</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.3531008821813</v>
+        <v>935.7499273842031</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
         <v>623.6437572083089</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3036.708186560813</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2908.148265407418</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2747.336217129205</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2747.336217129205</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2471.277863384681</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468835</v>
+        <v>2176.765939604926</v>
       </c>
       <c r="Y11" t="n">
-        <v>1927.275136468835</v>
+        <v>2176.765939604926</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
         <v>1863.93438008877</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,46 +5203,46 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1754.28502983002</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1456.050209620138</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
         <v>1239.080171854346</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.346981401985</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.83505762223</v>
+        <v>2203.333490213359</v>
       </c>
       <c r="Y14" t="n">
-        <v>1754.28502983002</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,13 +5595,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L18" t="n">
-        <v>802.5350401618138</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
         <v>1458.313011372373</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184705</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,13 +5783,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,7 +6151,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
@@ -6163,34 +6163,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6248,7 +6248,7 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225741</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.39538810703</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238552</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C30" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D30" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E30" t="n">
         <v>455.5411533800415</v>
@@ -6531,25 +6531,25 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G30" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672777</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278174</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278174</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6558,19 +6558,19 @@
         <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368296</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R30" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S30" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T30" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U30" t="n">
         <v>1845.80571859867</v>
@@ -6579,13 +6579,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W30" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X30" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y30" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904113</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674325</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855435</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926767</v>
+        <v>87.68547930209911</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061323</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1271.756024665047</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350013</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987475</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879804</v>
+        <v>2577.354419973819</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011325</v>
+        <v>2950.162960845457</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152274</v>
+        <v>3249.878056474704</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152274</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491229</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.90028443204</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304548</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304548</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>552.1087132813587</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.88036290804</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="N33" t="n">
-        <v>1464.736511051303</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.256793642284</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590211</v>
+        <v>341.6872565554775</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229142</v>
+        <v>288.6839909715317</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233329</v>
+        <v>250.2527302241114</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804393</v>
+        <v>211.8957704333788</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913162</v>
+        <v>171.7716879964167</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886657</v>
+        <v>120.7194864459271</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806365</v>
+        <v>82.44278775748604</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304548</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304548</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>258.868176133373</v>
+        <v>233.4810487454319</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475585</v>
+        <v>397.6086886192317</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262082</v>
+        <v>583.9002669574957</v>
       </c>
       <c r="N34" t="n">
-        <v>1117.948551297803</v>
+        <v>767.0899009887048</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245668</v>
+        <v>973.4182183960779</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022246</v>
+        <v>1208.163919660955</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392297</v>
+        <v>1326.455651519305</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422778</v>
+        <v>1319.756514501947</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034561</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.62508355286</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448258</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279026</v>
+        <v>798.6106513157149</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569841</v>
+        <v>632.4821015969575</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378711</v>
+        <v>515.6036317300055</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524184</v>
+        <v>409.6934228967139</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1517.077765835765</v>
+        <v>1624.546437901693</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835765</v>
+        <v>1328.812188394756</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042566</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492442</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693555</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3087.726887646301</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3087.726887646301</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.415410071033</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="V41" t="n">
-        <v>2684.749852764684</v>
+        <v>2792.218524830611</v>
       </c>
       <c r="W41" t="n">
-        <v>2411.192069723105</v>
+        <v>2518.660741789032</v>
       </c>
       <c r="X41" t="n">
-        <v>2119.180716646295</v>
+        <v>2226.649388712222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1820.131259557029</v>
+        <v>1927.599931622956</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7500,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344861</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690441</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,7 +7570,7 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
         <v>564.8145793170083</v>
@@ -7585,7 +7585,7 @@
         <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557613</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288777</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356542</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.812015342702</v>
+        <v>1812.812015342703</v>
       </c>
       <c r="C44" t="n">
         <v>1517.077765835766</v>
@@ -7631,25 +7631,25 @@
         <v>1229.077889042567</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492443</v>
+        <v>923.9356161492445</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693553</v>
+        <v>604.4824296693555</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>288.7609261474919</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7679,19 +7679,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2980.484102271621</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2980.484102271621</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2706.926319230042</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781039</v>
+        <v>2414.914966153232</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691774</v>
+        <v>2115.865509063966</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344861</v>
+        <v>475.5803720344865</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906089</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690441</v>
+        <v>97.77230107690447</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022401</v>
+        <v>505.1989733022414</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160337</v>
+        <v>786.9927227160349</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557613</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288777</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356542</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>211.1549943349283</v>
+        <v>162.3509473838151</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507692</v>
+        <v>655.3475650705619</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>206.4594520364013</v>
+        <v>598.6161957820897</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671517</v>
+        <v>591.6011865869444</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>159.0150223851739</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7691257384956</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507692</v>
+        <v>655.3475650705619</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>248.4683687559935</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>199.4126278829914</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622969</v>
+        <v>351.7041809007916</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671517</v>
+        <v>591.6011865869444</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216667</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,7 +8462,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,7 +8778,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>668.5665922884425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9006,19 +9006,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L18" t="n">
-        <v>514.986373519011</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271596</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,13 +11385,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.9958951047306</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.301428375530605</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>229.2701811477968</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>72.79510563304888</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.494447475885076</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822793</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.33437745424733</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>118.0013416284701</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822793</v>
+        <v>40.48690626822798</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812805</v>
+        <v>68.38158003812811</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>32.51080269470202</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>569747.7512076817</v>
+        <v>569446.9774008016</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>569747.7512076817</v>
+        <v>569446.9774008016</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>538280.2733101952</v>
+        <v>538280.2733101953</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540571.0373791656</v>
+        <v>540571.0373791655</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>540571.0373791656</v>
+        <v>540571.0373791654</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640914</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="C2" t="n">
-        <v>703295.494564091</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640916</v>
       </c>
       <c r="E2" t="n">
-        <v>660956.8784646289</v>
+        <v>660956.8784646287</v>
       </c>
       <c r="F2" t="n">
         <v>660956.8784646286</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.494564091</v>
       </c>
       <c r="H2" t="n">
         <v>703295.4945640907</v>
       </c>
       <c r="I2" t="n">
+        <v>703295.4945640906</v>
+      </c>
+      <c r="J2" t="n">
         <v>703295.494564091</v>
       </c>
-      <c r="J2" t="n">
-        <v>703295.4945640912</v>
-      </c>
       <c r="K2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="L2" t="n">
         <v>703295.4945640906</v>
       </c>
       <c r="M2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.4945640906</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546237</v>
+        <v>663838.8074546236</v>
       </c>
       <c r="P2" t="n">
-        <v>663838.8074546237</v>
+        <v>663838.8074546236</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602657</v>
+        <v>26460.41160941836</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.9558730143</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.80335481257</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436855</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015679</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26433,7 +26433,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
@@ -26445,19 +26445,19 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081436</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>111818.0002629859</v>
+        <v>111818.0002629858</v>
       </c>
       <c r="P4" t="n">
-        <v>111818.0002629859</v>
+        <v>111818.0002629858</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
+        <v>63659.04525391951</v>
+      </c>
+      <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
-      <c r="K5" t="n">
-        <v>63659.04525391952</v>
-      </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588336</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278070.0885349339</v>
+        <v>281519.212928588</v>
       </c>
       <c r="C6" t="n">
-        <v>456065.385669284</v>
+        <v>451168.2188051378</v>
       </c>
       <c r="D6" t="n">
-        <v>449193.86458361</v>
+        <v>441457.5753602185</v>
       </c>
       <c r="E6" t="n">
-        <v>365248.2734540132</v>
+        <v>365139.7128999117</v>
       </c>
       <c r="F6" t="n">
-        <v>495701.204591725</v>
+        <v>495592.6440376237</v>
       </c>
       <c r="G6" t="n">
-        <v>481283.0643680808</v>
+        <v>481283.0643680805</v>
       </c>
       <c r="H6" t="n">
+        <v>510378.0202410947</v>
+      </c>
+      <c r="I6" t="n">
         <v>510378.0202410945</v>
       </c>
-      <c r="I6" t="n">
-        <v>510378.0202410949</v>
-      </c>
       <c r="J6" t="n">
-        <v>282292.3768913455</v>
+        <v>288808.6620459186</v>
       </c>
       <c r="K6" t="n">
-        <v>504138.2518383122</v>
+        <v>504138.251838312</v>
       </c>
       <c r="L6" t="n">
-        <v>465243.9049057235</v>
+        <v>461195.0676952511</v>
       </c>
       <c r="M6" t="n">
-        <v>467646.7433067262</v>
+        <v>466595.0482955379</v>
       </c>
       <c r="N6" t="n">
-        <v>510378.0202410949</v>
+        <v>510378.0202410947</v>
       </c>
       <c r="O6" t="n">
-        <v>477716.8395789305</v>
+        <v>477615.6685863418</v>
       </c>
       <c r="P6" t="n">
-        <v>496700.3994090871</v>
+        <v>496599.2284164987</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880685</v>
+        <v>831.8776843078608</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087633</v>
+        <v>58.40725419351571</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902014</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769598</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651727</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559193</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455245</v>
+        <v>129.6883820257323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651727</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318.0001058505341</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>165.1131313818546</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.41134685124848</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>66.17385199706543</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,16 +27546,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.27027653926918</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>147.4015016040374</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>96.33508914950863</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>181.8795140956159</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051455</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>173.3191472836692</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.96518630541411</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>196.9433626406616</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256.1804365621102</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>150.3940716710634</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431596</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.71049010668918</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901357</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>98.75804948161306</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620213789</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465268352</v>
+        <v>44.06419228855054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082768</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561693058</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023189</v>
+        <v>36.24905561693122</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693052</v>
+        <v>36.24905561693191</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023189</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.90682460443661</v>
+        <v>9.102777653323368</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>114.0723299870894</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.32746349628499</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>483.0440741407684</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>98.90453133189709</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>109.3522810260731</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129851</v>
+        <v>259.3170588514797</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,7 +35182,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,7 +35498,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>583.1944794342759</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963359</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L18" t="n">
-        <v>424.9260266620927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287092</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047999</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3664899133927</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221359</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050165</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087256</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>302.7425208376234</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923099</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729929</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440521</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407349</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759449</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288837</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897624</v>
+        <v>208.4124418256294</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>119.4865978367168</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634527946</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37953,10 +37953,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548887</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038437</v>
+        <v>39.70581962708371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,13 +38105,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0345504389505</v>
+        <v>202.0345504389519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038437</v>
+        <v>99.92360348038432</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
